--- a/youtube_泰国广告.xlsx
+++ b/youtube_泰国广告.xlsx
@@ -1034,7 +1034,12 @@
       </c>
       <c r="D1" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e8bb07da1e999856a2104fcb046979da</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1061,12 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f4fce186b546bee78c9417233584527f</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1115,12 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/43c6256e31ec94791fe61346bba6cfcd</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1142,12 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8948ba853cd3a3120ebf6b000ae4468d</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1169,12 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/35b33645869e02e832cf992313b437e4</t>
         </is>
       </c>
     </row>

--- a/youtube_泰国广告.xlsx
+++ b/youtube_泰国广告.xlsx
@@ -1169,12 +1169,12 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/35b33645869e02e832cf992313b437e4</t>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/35b33645869e02e832cf992313b437e4.mp4</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,12 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a2aa317e42e88d8ef65aaf2821082000.mp4</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1245,12 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0ae681a8d050d88eaab25bd2407e145e.mp4</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1272,12 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/cd2b7c331a95837c9ee3636ec1041c9c.mp4</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1299,12 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f580ba89a8f183c9d5082ff5852d7fc8.mp4</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1326,12 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/365b9b5f59c2af1f6d6e52d063ca8703.mp4</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1353,12 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/16ebd6ca3198422b091f83071a3852e1.mp4</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1380,12 @@
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/020d97076560638b97a4c41b9f5d8794.mp4</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1407,12 @@
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3a17cb21ef9ae18b00146b51acff908b.mp4</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1434,12 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/56c2dcc4f5736b42ac5430b5fe44c91c.mp4</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1461,12 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0734ca9c062a70c2a7bd6f3164d6aba1.mp4</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1488,12 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/35eb53b554570445043ae011ed9bd077.mp4</t>
         </is>
       </c>
     </row>
@@ -1460,12 +1515,12 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/34802ddd0d1357df738db20daa01a9e1</t>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/34802ddd0d1357df738db20daa01a9e1.mp4</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1542,12 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f72d7bbfea4b887ca91225b544b7a11a.mp4</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1569,12 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/222d1005e5f663b5498285fe55fb9d69.mp4</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1596,12 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2d89204be5f292d39ee14e6a6c6853d2.mp4</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1623,12 @@
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/5661c8eb5d7d4308fb62e9b5287cf29f.mp4</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1650,12 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/6b7252b348bb89d1a7c06f593b1b99e2.mp4</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1677,12 @@
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0094622e0a586a8108e0e3667b0db017.mp4</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1704,12 @@
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/16667c6b2205f70b0f8b53ed7a5dca13.mp4</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1731,12 @@
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/fcfb97cb82b8c250171ef0b73862843f.mp4</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1758,12 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/db87d5aee2730225a3f2105002221f97.mp4</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1785,12 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/67f305f2b4f65cf27d8d5afd0c8a3734.mp4</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1834,12 @@
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/68eecffde9b33bdfbf90aac5254d8849.mp4</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1861,12 @@
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/490868dc954196270c99f52381df3025.mp4</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1888,12 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c64f106e15283dae3528af5b0c3e05ef.mp4</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1915,12 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/9a9c4829687fff346ca4b2b4a9ced518.mp4</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1942,12 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/47e34f6975a489aeebf7b9e6c9d1fca8.mp4</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1969,12 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1a8a74bfedc818b7d3be67b22df6f4ef.mp4</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1996,12 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/fe62d1d814f52819307792f9221fb677.mp4</t>
         </is>
       </c>
     </row>
@@ -1883,7 +2023,12 @@
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c61ff6b79383d9985df219ecfb465f90.mp4</t>
         </is>
       </c>
     </row>
@@ -1905,7 +2050,12 @@
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2fe273e3796533b95f295495a2c665b3.mp4</t>
         </is>
       </c>
     </row>
@@ -1927,7 +2077,12 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/17e8a04a80f90ae5bd9774e656af2dbc.mp4</t>
         </is>
       </c>
     </row>
@@ -1949,7 +2104,12 @@
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4d3b4322b43b7ebe571129ccf3528163.mp4</t>
         </is>
       </c>
     </row>
@@ -1971,7 +2131,12 @@
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b92c83ff13f9bcbe3a5bcf8f540b4d79.mp4</t>
         </is>
       </c>
     </row>
@@ -1993,7 +2158,12 @@
       </c>
       <c r="D43" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/96218520d1cf96db3be6c2ec8cc4461b.mp4</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2185,12 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d2a36e7ed2bf452350749e4fca98a563.mp4</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2212,12 @@
       </c>
       <c r="D45" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a2e40ae81779a172eeee719e6ec9bd4a.mp4</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2239,12 @@
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/894313fc87991c2e9e1b079db5975151.mp4</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2266,12 @@
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="E47" s="0" t="inlineStr">
         <is>
-          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/88b0740a598aaacd54be0cb7ea88ca65</t>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/88b0740a598aaacd54be0cb7ea88ca65.mp4</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2293,12 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f89c471106e91065207f96668424f5f3.mp4</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2320,12 @@
       </c>
       <c r="D49" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1e442a40844372356a3651a697498705.mp4</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2347,12 @@
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/dcc6b675df533afcbde4530800f8a92d.mp4</t>
         </is>
       </c>
     </row>
@@ -2174,12 +2374,12 @@
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="E51" s="0" t="inlineStr">
         <is>
-          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ff535618aa28f4fb52a8f44382627a7a</t>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ff535618aa28f4fb52a8f44382627a7a.mp4</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2401,12 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/577abf2e4efd8b333155f62efa3a8ec6.mp4</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2428,12 @@
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ffe395918b2c32add20d6325a8c70176.mp4</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2477,12 @@
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0972714d9f1dd7f3ca967c1bfa76890d.mp4</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2504,12 @@
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1e97983b9a080d8db02167f95fa82c14.mp4</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2531,12 @@
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b5c5dcab379230e72f7fb2ed80ef0fb4.mp4</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2558,12 @@
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e6257706ac10760c0a3d7dc6330e1ab7.mp4</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2585,12 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E59" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4a6756e46edc2b07dd3ac734b3a781f4.mp4</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2612,12 @@
       </c>
       <c r="D60" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/01c2db7a3f2751454e9fbd075aa06c39.mp4</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2639,12 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E61" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e950850a2ecb08dac0304ce0c550d7d7.mp4</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2688,12 @@
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e01d8b12e5dc5a0b27a151a570b08591.mp4</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2715,12 @@
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2a2a0940d4ef64b459834e394a86d4eb.mp4</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2742,12 @@
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/eaecd3af2f551c3d72a9177581787eef.mp4</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2769,12 @@
       </c>
       <c r="D66" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/37c530c8dc6bde98de46c9fb528ffc94.mp4</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2796,12 @@
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E67" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f49caa0560d1d21d2e4f7d3baeccbded.mp4</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2823,12 @@
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E68" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/262a0f556b263bf9ef9672fa13450494.mp4</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2850,12 @@
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E69" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/43e852d375a39d2f78a8505a28396b21.mp4</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2877,12 @@
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E70" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3b893a20e43850b17fcc23f90799f59f.mp4</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2904,12 @@
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E71" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1bb67676894f6e90f13f4c9ce8c852d6.mp4</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2931,12 @@
       </c>
       <c r="D72" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E72" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c8dccd3b026eb9ddc5e7a9c17beb052d.mp4</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2958,12 @@
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E73" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/815ecff39e76c76c6564b2f200c00206.mp4</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2985,12 @@
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/20a463a7acb3faace5dcc3654bffbb2c.mp4</t>
         </is>
       </c>
     </row>
@@ -2707,7 +3012,12 @@
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/63a4a5a58d5110e13943af31f71de710.mp4</t>
         </is>
       </c>
     </row>
@@ -2729,7 +3039,12 @@
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b79fa6beec39a36aedbced92d0891817.mp4</t>
         </is>
       </c>
     </row>
@@ -2751,7 +3066,12 @@
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/9ca628706b7731ccadc01cc2a4b3a313.mp4</t>
         </is>
       </c>
     </row>
@@ -2773,7 +3093,12 @@
       </c>
       <c r="D78" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a0eaff094a509987ba5bed9a5f27d782.mp4</t>
         </is>
       </c>
     </row>
@@ -2795,7 +3120,12 @@
       </c>
       <c r="D79" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/538d8ec0bb9da115e0e62c2cdf6562a3.mp4</t>
         </is>
       </c>
     </row>
@@ -2817,7 +3147,12 @@
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E80" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ab6579a43e8441a0a9db4b0259d0dd7d.mp4</t>
         </is>
       </c>
     </row>
@@ -2839,7 +3174,12 @@
       </c>
       <c r="D81" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/417f07b16a585d1ed4399ec46afe0c98.mp4</t>
         </is>
       </c>
     </row>
@@ -9999,7 +10339,12 @@
       </c>
       <c r="D406" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E406" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ffe395918b2c32add20d6325a8c70176.mp4</t>
         </is>
       </c>
     </row>

--- a/youtube_泰国广告.xlsx
+++ b/youtube_泰国广告.xlsx
@@ -3177,7 +3177,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="0" t="inlineStr">
         <is>
           <t>http://obs-cn-shenzhen.yun.pingan.com/spider/417f07b16a585d1ed4399ec46afe0c98.mp4</t>
         </is>
@@ -3201,7 +3201,12 @@
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E82" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f2d56b244bb05a7fed5328ac950cf21b.mp4</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3228,12 @@
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E83" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0278c77317d6c2915f2e746054335795.mp4</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3255,12 @@
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E84" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/14e7ea2711e2975e7ded4f775cdc38d0.mp4</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3282,12 @@
       </c>
       <c r="D85" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E85" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4de8a5c4ce3b102505e7b464f07bb51a.mp4</t>
         </is>
       </c>
     </row>

--- a/youtube_泰国广告.xlsx
+++ b/youtube_泰国广告.xlsx
@@ -1223,7 +1223,12 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/19f4d0ab65a39930fcdb3c08fd0f1b31.mp4</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1817,12 @@
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0d57d2acefb0e1e48d66870ca0148c89.mp4</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2465,12 @@
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ce608467f5f9b3a840ec90ba80178dca.mp4</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2681,12 @@
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E62" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b45bd499fed2195b23b3c2f857624f9b.mp4</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3329,12 @@
       </c>
       <c r="D86" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E86" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a3ce22dcdff33ae2bd9007167877b566.mp4</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3356,12 @@
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E87" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a85eef4cc36171475abb40a5bfed69bf.mp4</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3383,12 @@
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E88" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/cc0bdab80cab791dc4b1e6595fa89e64.mp4</t>
         </is>
       </c>
     </row>
@@ -3375,7 +3410,12 @@
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E89" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8e53ab8878550dd04180536e01a5d035.mp4</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3437,12 @@
       </c>
       <c r="D90" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E90" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d6e77f5296d41e03bb3ff178ba19e5c5.mp4</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3464,12 @@
       </c>
       <c r="D91" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E91" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/26042535e80d0186990c63a0c5db558f.mp4</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3491,12 @@
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E92" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2a0c102a8728ea677bfd417057662c54.mp4</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3518,12 @@
       </c>
       <c r="D93" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E93" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0c166fab97ccb36b4586fbfa87010953.mp4</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3545,12 @@
       </c>
       <c r="D94" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E94" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/335ca21a636f989d70e4c315ad5e4c15.mp4</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3572,12 @@
       </c>
       <c r="D95" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E95" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f8f7529b8513e6a9710ef8b8c989b044.mp4</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3599,12 @@
       </c>
       <c r="D96" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E96" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/dbdbb121204188bc53f61e2ae2e12cac.mp4</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3626,12 @@
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E97" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/576c0d26db8e96cbbfb589d5a71e940f.mp4</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3653,12 @@
       </c>
       <c r="D98" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E98" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ffbd72fde18f337096d031622e84600a.mp4</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3680,12 @@
       </c>
       <c r="D99" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E99" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e1451b298e468caeaade0c33c8af4993.mp4</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3707,12 @@
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E100" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/561af3797eecc0ee34d7ae499b9d0d5f.mp4</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3734,12 @@
       </c>
       <c r="D101" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E101" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/5137ff71a1fc70913802d3287fa5b920.mp4</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3761,12 @@
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E102" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b6a455b1928c859c788b8e58b8792262.mp4</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3788,12 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E103" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/6472f058f49dc9692b7218d47b65a05e.mp4</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3815,12 @@
       </c>
       <c r="D104" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E104" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ac0ceee60103921f587809c521bb71d1.mp4</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3842,12 @@
       </c>
       <c r="D105" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E105" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/abbca9893f411c5b6f35e5d3f5bbe7aa.mp4</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3869,12 @@
       </c>
       <c r="D106" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/206c6c6bcdb9be9528b969d411fc8335.mp4</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3918,12 @@
       </c>
       <c r="D108" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E108" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7e65b0beac63f0c2ca470641806ad1a7.mp4</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3945,12 @@
       </c>
       <c r="D109" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E109" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d93e95a7a792d9bc3cab79142d7c8017.mp4</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3972,12 @@
       </c>
       <c r="D110" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E110" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/458a5b2746cdca1589a1325eb25351be.mp4</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3999,12 @@
       </c>
       <c r="D111" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E111" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/71f10d41f3d2f7f8a79e0942bb23754e.mp4</t>
         </is>
       </c>
     </row>
@@ -3903,7 +4048,12 @@
       </c>
       <c r="D113" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/86694d72fc5cfdc7adf1cd32b09b3262.mp4</t>
         </is>
       </c>
     </row>
@@ -3925,7 +4075,12 @@
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a89588af754d64e4d69836009998aca6.mp4</t>
         </is>
       </c>
     </row>

--- a/youtube_泰国广告.xlsx
+++ b/youtube_泰国广告.xlsx
@@ -3872,7 +3872,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" s="0" t="inlineStr">
         <is>
           <t>http://obs-cn-shenzhen.yun.pingan.com/spider/206c6c6bcdb9be9528b969d411fc8335.mp4</t>
         </is>
@@ -3896,7 +3896,12 @@
       </c>
       <c r="D107" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E107" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/6223d29eb1798848c2b03ad02adbdc6a.mp4</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4031,12 @@
       </c>
       <c r="D112" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E112" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d68fe1cb46b48291ee8a4d9336e6b041.mp4</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4061,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E113" s="0" t="inlineStr">
         <is>
           <t>http://obs-cn-shenzhen.yun.pingan.com/spider/86694d72fc5cfdc7adf1cd32b09b3262.mp4</t>
         </is>
@@ -4078,7 +4088,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E114" s="0" t="inlineStr">
         <is>
           <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a89588af754d64e4d69836009998aca6.mp4</t>
         </is>
@@ -4102,7 +4112,12 @@
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E115" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d632a4966df76b7b0447ea9a6311809e.mp4</t>
         </is>
       </c>
     </row>
@@ -4124,7 +4139,12 @@
       </c>
       <c r="D116" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E116" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/eebbf795e5531d8e79285a9ff5014c81.mp4</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4166,12 @@
       </c>
       <c r="D117" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E117" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c13b55b2d9e2c8404e80b45561025d15.mp4</t>
         </is>
       </c>
     </row>
@@ -4168,7 +4193,12 @@
       </c>
       <c r="D118" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E118" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/adc8d89cfcd725c633bf3be3eec6d706.mp4</t>
         </is>
       </c>
     </row>
@@ -4190,7 +4220,12 @@
       </c>
       <c r="D119" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E119" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/eb4979904ced762354a2b651c47e9543.mp4</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4247,12 @@
       </c>
       <c r="D120" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E120" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/99933169f3354becbb6f4081de7b59f0.mp4</t>
         </is>
       </c>
     </row>
@@ -4234,7 +4274,12 @@
       </c>
       <c r="D121" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E121" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f1f46b82a71a209563e115b9c2b63657.mp4</t>
         </is>
       </c>
     </row>
@@ -4256,7 +4301,12 @@
       </c>
       <c r="D122" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E122" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/878ec39e64d27d1e441db38c0861222d.mp4</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4328,12 @@
       </c>
       <c r="D123" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E123" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bb5d9a8f26205f4b6a6514d437e0ebab.mp4</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4355,12 @@
       </c>
       <c r="D124" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E124" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/958e0bf8e14a153ad650db45483e7a8b.mp4</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4382,12 @@
       </c>
       <c r="D125" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E125" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/25987ae47e8ab25b281fbf05b8c6a6ae.mp4</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4409,12 @@
       </c>
       <c r="D126" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E126" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/15a408e3fd01f41913f911404ff4de20.mp4</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4436,12 @@
       </c>
       <c r="D127" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E127" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c36a08a0443472467bb971db43747655.mp4</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4463,12 @@
       </c>
       <c r="D128" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E128" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/9881a1196c14ca9a972c2a7c2b13c987.mp4</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4512,12 @@
       </c>
       <c r="D130" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E130" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3db12c03b37146238be77176461c9b16.mp4</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4539,12 @@
       </c>
       <c r="D131" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E131" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/808f23821338ac9aa5e45bb854274e3f.mp4</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4566,12 @@
       </c>
       <c r="D132" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E132" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4af7180406ab40336c59a78797f7949f.mp4</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4593,12 @@
       </c>
       <c r="D133" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E133" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/9783dadbb2a2e13d3f0f98ba58d08f5d.mp4</t>
         </is>
       </c>
     </row>
@@ -4520,7 +4620,12 @@
       </c>
       <c r="D134" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E134" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2dfc79c5221339e2891236f9729b2078.mp4</t>
         </is>
       </c>
     </row>
@@ -4542,7 +4647,12 @@
       </c>
       <c r="D135" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E135" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e7cb6c94435a7d40c35e166428610ec4.mp4</t>
         </is>
       </c>
     </row>
@@ -4564,7 +4674,12 @@
       </c>
       <c r="D136" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E136" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3533792a4a67c16ace95cf8a6fd63d21.mp4</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4701,12 @@
       </c>
       <c r="D137" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E137" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/170079435ce55d8f1fab94dfcd256acd.mp4</t>
         </is>
       </c>
     </row>
@@ -4608,7 +4728,12 @@
       </c>
       <c r="D138" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E138" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e69606bcff6e267f0cae5f4588aa9f1e.mp4</t>
         </is>
       </c>
     </row>
@@ -4630,7 +4755,12 @@
       </c>
       <c r="D139" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E139" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/84e9933f491c5b29045fdf147c198f76.mp4</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4782,12 @@
       </c>
       <c r="D140" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E140" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/897603a8d81df20cbf2a47862eb975bd.mp4</t>
         </is>
       </c>
     </row>
@@ -4674,7 +4809,12 @@
       </c>
       <c r="D141" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E141" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3af6c7130912f23d8cccb04186f227b8.mp4</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4836,12 @@
       </c>
       <c r="D142" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E142" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/31538986e4163e257902a814526058d7.mp4</t>
         </is>
       </c>
     </row>
@@ -4740,7 +4885,12 @@
       </c>
       <c r="D144" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E144" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3a9ba55e4369c27e728079c4003c28a8.mp4</t>
         </is>
       </c>
     </row>
@@ -4762,7 +4912,12 @@
       </c>
       <c r="D145" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E145" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/96ae929e94fe96da800f95e3ccd54f92.mp4</t>
         </is>
       </c>
     </row>
@@ -4784,7 +4939,12 @@
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E146" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f798eb50f8f165c5aac4aebd8947323c.mp4</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4966,12 @@
       </c>
       <c r="D147" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E147" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c9dccb27c20819733638712ebdc75c3b.mp4</t>
         </is>
       </c>
     </row>
@@ -4828,7 +4993,12 @@
       </c>
       <c r="D148" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E148" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bd57bdc021389697debec26a203eb696.mp4</t>
         </is>
       </c>
     </row>
@@ -4850,12 +5020,12 @@
       </c>
       <c r="D149" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="E149" s="0" t="inlineStr">
         <is>
-          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/5b1b4aa0b44144c77853ee0305e76864</t>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/04bd90c6acfa4acf527b43af13db2401.mp4</t>
         </is>
       </c>
     </row>
@@ -4877,7 +5047,12 @@
       </c>
       <c r="D150" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E150" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/61b167d95474c12c006394a3cb2fce17.mp4</t>
         </is>
       </c>
     </row>
@@ -4899,7 +5074,12 @@
       </c>
       <c r="D151" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E151" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/97d66310b04d16e4659b078665adcf3d.mp4</t>
         </is>
       </c>
     </row>
@@ -4921,7 +5101,12 @@
       </c>
       <c r="D152" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E152" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b67db52e5ff258311639c31fa5ae8129.mp4</t>
         </is>
       </c>
     </row>
@@ -4943,7 +5128,12 @@
       </c>
       <c r="D153" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E153" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7c2d10bd6a42128e8fb65f53bcf2e092.mp4</t>
         </is>
       </c>
     </row>
@@ -4965,7 +5155,12 @@
       </c>
       <c r="D154" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E154" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4f36e84d7cca7c3f1042a94b1976ba31.mp4</t>
         </is>
       </c>
     </row>
@@ -4987,7 +5182,12 @@
       </c>
       <c r="D155" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E155" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/db66ad0ed7ed0f11d53294179e2107c5.mp4</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5209,12 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E156" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/84999db6940a7fad2390f128078b0a9a.mp4</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5236,12 @@
       </c>
       <c r="D157" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E157" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/cb4685c78d95108f8a6e941f44bacda6.mp4</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5263,12 @@
       </c>
       <c r="D158" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E158" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7bdd85281d7beb2d3f01e13d60cbeb20.mp4</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5290,12 @@
       </c>
       <c r="D159" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E159" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0f9eff551ed9023c0d98835136cef4f1.mp4</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5317,12 @@
       </c>
       <c r="D160" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E160" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/96e8f6afdd3fcf35177ddb5a48dcf3ea.mp4</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5344,12 @@
       </c>
       <c r="D161" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E161" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3d5be48f97f5606b1533994613a357e4.mp4</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5371,12 @@
       </c>
       <c r="D162" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E162" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/fc255147a6530e1c90dffd184f9f302a.mp4</t>
         </is>
       </c>
     </row>
@@ -5163,7 +5398,12 @@
       </c>
       <c r="D163" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E163" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/baba7925f44accaef557b36b3754db24.mp4</t>
         </is>
       </c>
     </row>
@@ -5185,7 +5425,12 @@
       </c>
       <c r="D164" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E164" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bf7788768b5094115bd089c4ae59bd26.mp4</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5452,12 @@
       </c>
       <c r="D165" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E165" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a01188d256f9ed9de98f7661c50ef2c3.mp4</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5479,12 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E166" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c15195c32f3845a3fe9c27cac0af585e.mp4</t>
         </is>
       </c>
     </row>
@@ -5273,7 +5528,12 @@
       </c>
       <c r="D168" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E168" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e9cb35a48457248ad75a3aa8b247ecd5.mp4</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5555,12 @@
       </c>
       <c r="D169" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E169" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/99aaca07f147d73f79b4ca9b0731ce24.mp4</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5582,12 @@
       </c>
       <c r="D170" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E170" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4e20151c0f430a4354d6b3def598d936.mp4</t>
         </is>
       </c>
     </row>
@@ -5339,7 +5609,12 @@
       </c>
       <c r="D171" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E171" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/221cd5b90efc580ef00adcb03f3e2524.mp4</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5636,12 @@
       </c>
       <c r="D172" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E172" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/850f57f2fbcf106ceef3826ad0195432.mp4</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5663,12 @@
       </c>
       <c r="D173" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E173" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/52ed324fbc0deeee4d35288bfa57534e.mp4</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5690,12 @@
       </c>
       <c r="D174" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E174" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b3bf66e1c85dee5302c7d0f9faae6633.mp4</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5717,12 @@
       </c>
       <c r="D175" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E175" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f7fd4499b37510fa091111c1eec9e3b0.mp4</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5744,12 @@
       </c>
       <c r="D176" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E176" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/254daed1e903621a419cdbe1d7f68272.mp4</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5771,12 @@
       </c>
       <c r="D177" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E177" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ac2877dd3aa7b7ec7bfe58c2ed673ad9.mp4</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5798,12 @@
       </c>
       <c r="D178" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E178" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3ff39d233a85682667387aa36552f30b.mp4</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5825,12 @@
       </c>
       <c r="D179" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E179" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8c1ed53fabacdc14989093bd7d5d1c8f.mp4</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5852,12 @@
       </c>
       <c r="D180" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E180" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/df45665116a6a4cf0ce9df12657dc2b2.mp4</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5879,12 @@
       </c>
       <c r="D181" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E181" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1114658541383d0321003bc628fe5e75.mp4</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5906,12 @@
       </c>
       <c r="D182" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E182" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/6f0bb8504d878fdb67b1db6f4f4ba989.mp4</t>
         </is>
       </c>
     </row>
@@ -5603,7 +5933,12 @@
       </c>
       <c r="D183" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E183" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e4f4990a2303c00945f4c6d84da0ed05.mp4</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5960,12 @@
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E184" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/98860a21efd0d7529781a5e5f13c476f.mp4</t>
         </is>
       </c>
     </row>
@@ -5647,7 +5987,12 @@
       </c>
       <c r="D185" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E185" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bf1fed91f5397788fb23f765fd7d5f77.mp4</t>
         </is>
       </c>
     </row>
@@ -5669,7 +6014,12 @@
       </c>
       <c r="D186" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E186" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8320c00da734efb78999585d6f90f411.mp4</t>
         </is>
       </c>
     </row>
@@ -5691,7 +6041,12 @@
       </c>
       <c r="D187" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E187" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/18b4720b0751a88d0a7770138135d4f5.mp4</t>
         </is>
       </c>
     </row>
@@ -5713,7 +6068,12 @@
       </c>
       <c r="D188" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E188" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ecdaa28a14efebcfd0f53b5c68e89682.mp4</t>
         </is>
       </c>
     </row>
@@ -5735,7 +6095,12 @@
       </c>
       <c r="D189" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E189" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d47ef5e81b812411031576bba35af080.mp4</t>
         </is>
       </c>
     </row>
@@ -5757,7 +6122,12 @@
       </c>
       <c r="D190" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E190" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/48d36496f7745ab51ae5f31005727512.mp4</t>
         </is>
       </c>
     </row>
@@ -5779,7 +6149,12 @@
       </c>
       <c r="D191" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E191" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/11c2ec4edaf7b10536ee4b9038f2e874.mp4</t>
         </is>
       </c>
     </row>
@@ -5801,7 +6176,12 @@
       </c>
       <c r="D192" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E192" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/93b78f962ad3d24de97aeb3c35ee681a.mp4</t>
         </is>
       </c>
     </row>
@@ -5823,7 +6203,12 @@
       </c>
       <c r="D193" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E193" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bd942967dc1e165e40ff45f4d49457e3.mp4</t>
         </is>
       </c>
     </row>
@@ -5845,7 +6230,12 @@
       </c>
       <c r="D194" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E194" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a5a2c462ec43551817d0eddae53bf0c9.mp4</t>
         </is>
       </c>
     </row>
@@ -5867,7 +6257,12 @@
       </c>
       <c r="D195" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E195" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/93e01b4df194735cfb8658b943d11063.mp4</t>
         </is>
       </c>
     </row>
@@ -5889,7 +6284,12 @@
       </c>
       <c r="D196" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E196" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ee6ebc3989382251684a30ea316620d5.mp4</t>
         </is>
       </c>
     </row>
@@ -5911,7 +6311,12 @@
       </c>
       <c r="D197" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E197" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/9454c9fe10d05d99e39862d8c6dd6013.mp4</t>
         </is>
       </c>
     </row>
@@ -5933,7 +6338,12 @@
       </c>
       <c r="D198" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E198" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/89a674774e1479e7861ba67cb7d13aa8.mp4</t>
         </is>
       </c>
     </row>
@@ -5955,7 +6365,12 @@
       </c>
       <c r="D199" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E199" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0da7cf56869e24c85c3657d267df5f02.mp4</t>
         </is>
       </c>
     </row>
@@ -5977,7 +6392,12 @@
       </c>
       <c r="D200" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E200" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/618c59207007348561c06b5439af3347.mp4</t>
         </is>
       </c>
     </row>
@@ -5999,7 +6419,12 @@
       </c>
       <c r="D201" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E201" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bac39b5e805b455e68096e5a2fe7caa5.mp4</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6446,12 @@
       </c>
       <c r="D202" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E202" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/5a5a098a566fb282276da2e6af546272.mp4</t>
         </is>
       </c>
     </row>
@@ -6043,7 +6473,12 @@
       </c>
       <c r="D203" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E203" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/97bd5aefa07194e5a47360eb48d9c681.mp4</t>
         </is>
       </c>
     </row>
@@ -6065,7 +6500,12 @@
       </c>
       <c r="D204" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E204" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/266cfbc9330c33e647f3340ac4c9fbbb.mp4</t>
         </is>
       </c>
     </row>
@@ -6087,7 +6527,12 @@
       </c>
       <c r="D205" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E205" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/5b87d04daf40e383245c0031e50d5c54.mp4</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6554,12 @@
       </c>
       <c r="D206" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E206" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a9d4c6039a88ef09f680759d3060aa73.mp4</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6581,12 @@
       </c>
       <c r="D207" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E207" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3fb605b46ffbe1937bcee3de7248e3d6.mp4</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6608,12 @@
       </c>
       <c r="D208" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E208" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a69e94779efb6aa6cf956fb245bacac6.mp4</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6635,12 @@
       </c>
       <c r="D209" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E209" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bf53e0648a1b79b917d447c32d1a62f2.mp4</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6662,12 @@
       </c>
       <c r="D210" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E210" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c8a2ad5e9336a9e4b8697918e1eba6bd.mp4</t>
         </is>
       </c>
     </row>
@@ -6219,7 +6689,12 @@
       </c>
       <c r="D211" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E211" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/49fd5e3bae987f2113a881a870250432.mp4</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6716,12 @@
       </c>
       <c r="D212" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E212" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1f5c97c08f027be82e6d633ccf16ee7e.mp4</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6743,12 @@
       </c>
       <c r="D213" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E213" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b6f0b61508e776ce214d243cc5c2702a.mp4</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6770,12 @@
       </c>
       <c r="D214" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E214" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a1c8df53d37ca550796c86b567b4f1e3.mp4</t>
         </is>
       </c>
     </row>
@@ -6307,7 +6797,12 @@
       </c>
       <c r="D215" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E215" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b89af5f23d15fbc766d202903c0b4e14.mp4</t>
         </is>
       </c>
     </row>
@@ -6329,7 +6824,12 @@
       </c>
       <c r="D216" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E216" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/263d496c545f0a1711a30d46d5469da8.mp4</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6851,12 @@
       </c>
       <c r="D217" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E217" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/70b0d60a29ddcd754be4a10ae394770d.mp4</t>
         </is>
       </c>
     </row>
@@ -6373,7 +6878,12 @@
       </c>
       <c r="D218" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E218" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/676e7ec184752d6def7a59cec7077032.mp4</t>
         </is>
       </c>
     </row>
@@ -6395,7 +6905,12 @@
       </c>
       <c r="D219" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E219" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e7a9c9fda59494d718f428d26fd7ad76.mp4</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6932,12 @@
       </c>
       <c r="D220" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E220" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0324b18f6b6f5f47a7eb2314125c30bf.mp4</t>
         </is>
       </c>
     </row>
@@ -6439,7 +6959,12 @@
       </c>
       <c r="D221" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E221" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/6ae4ff9dacd388a9b4fccaacbc40eef3.mp4</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6986,12 @@
       </c>
       <c r="D222" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E222" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/298d1eb7f2d8e84a1a30fc48177738cd.mp4</t>
         </is>
       </c>
     </row>
@@ -6483,7 +7013,12 @@
       </c>
       <c r="D223" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E223" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4545b2d201d62da34837cd058cd38f93.mp4</t>
         </is>
       </c>
     </row>
@@ -6505,7 +7040,12 @@
       </c>
       <c r="D224" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E224" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/53372f9a20d40a97e1f72f49bedc6cc8.mp4</t>
         </is>
       </c>
     </row>
@@ -6527,7 +7067,12 @@
       </c>
       <c r="D225" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E225" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c499a745527a6175772ac51b60bf3844.mp4</t>
         </is>
       </c>
     </row>
@@ -6549,7 +7094,12 @@
       </c>
       <c r="D226" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E226" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/5f78cc4d5ccb07d69166099085f40531.mp4</t>
         </is>
       </c>
     </row>
@@ -6571,7 +7121,12 @@
       </c>
       <c r="D227" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E227" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d60915b6a0f28266837f12830ca08d35.mp4</t>
         </is>
       </c>
     </row>
@@ -6593,7 +7148,12 @@
       </c>
       <c r="D228" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E228" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4fe2978889698fe2e96cf9f189a4d5f4.mp4</t>
         </is>
       </c>
     </row>
@@ -6615,7 +7175,12 @@
       </c>
       <c r="D229" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E229" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/da4a8d3396f56b78fe520abbba5b82bc.mp4</t>
         </is>
       </c>
     </row>
@@ -6637,7 +7202,12 @@
       </c>
       <c r="D230" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E230" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/19a8f5c230222f396ef1e58a9c64e330.mp4</t>
         </is>
       </c>
     </row>
@@ -6659,7 +7229,12 @@
       </c>
       <c r="D231" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E231" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ddfc25916f7c9248a6bbe6e7deb79509.mp4</t>
         </is>
       </c>
     </row>
@@ -6681,7 +7256,12 @@
       </c>
       <c r="D232" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E232" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a10c44fdfddb805d0535a26de25bbb11.mp4</t>
         </is>
       </c>
     </row>
@@ -6703,7 +7283,12 @@
       </c>
       <c r="D233" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E233" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1ca04e178b53359979b039a293082b22.mp4</t>
         </is>
       </c>
     </row>
@@ -6725,7 +7310,12 @@
       </c>
       <c r="D234" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E234" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/98e3a466857d15ff008535254f1295e4.mp4</t>
         </is>
       </c>
     </row>
@@ -6747,7 +7337,12 @@
       </c>
       <c r="D235" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E235" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1f49624306fb3c1b6021989bb7ee8cd2.mp4</t>
         </is>
       </c>
     </row>
@@ -6769,7 +7364,12 @@
       </c>
       <c r="D236" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E236" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0ae3418f3d893c3883142186d9daef1c.mp4</t>
         </is>
       </c>
     </row>
@@ -6791,7 +7391,12 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E237" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8a720723c65fe253f501886af1381114.mp4</t>
         </is>
       </c>
     </row>
@@ -6813,7 +7418,12 @@
       </c>
       <c r="D238" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E238" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2d16d1f8f4f5fcfa6516ac629e3da541.mp4</t>
         </is>
       </c>
     </row>
@@ -6835,7 +7445,12 @@
       </c>
       <c r="D239" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E239" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/02098e63d68711b79923c85558fb0ec6.mp4</t>
         </is>
       </c>
     </row>
@@ -6857,7 +7472,12 @@
       </c>
       <c r="D240" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E240" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b8cd44504f1055874ab7bcd9237c8210.mp4</t>
         </is>
       </c>
     </row>
@@ -6879,7 +7499,12 @@
       </c>
       <c r="D241" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E241" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d8eef09d3f9e15e563021b22127df418.mp4</t>
         </is>
       </c>
     </row>
@@ -6901,7 +7526,12 @@
       </c>
       <c r="D242" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E242" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/93080025a6f27e628640b45c6b215698.mp4</t>
         </is>
       </c>
     </row>
@@ -6923,12 +7553,12 @@
       </c>
       <c r="D243" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="E243" s="0" t="inlineStr">
         <is>
-          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0a5b1f9320c4f42cf06f6d512fa2af57</t>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0db54b69a5fe121dd13489b977156304.mp4</t>
         </is>
       </c>
     </row>
@@ -6950,7 +7580,12 @@
       </c>
       <c r="D244" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E244" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/547761e06ad81ef24b95ba2f42b16d12.mp4</t>
         </is>
       </c>
     </row>
@@ -6972,7 +7607,12 @@
       </c>
       <c r="D245" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E245" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e1ab6088bcdef05d4f48d94e150a3f55.mp4</t>
         </is>
       </c>
     </row>
@@ -6994,7 +7634,12 @@
       </c>
       <c r="D246" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E246" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2cbcfca7621b6f82ed5adc9218934f95.mp4</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7661,12 @@
       </c>
       <c r="D247" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E247" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/992d13a6064ac1e33a9e47286c55e9c7.mp4</t>
         </is>
       </c>
     </row>
@@ -7060,7 +7710,12 @@
       </c>
       <c r="D249" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E249" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/314bc9cb7c0c78678793bea930c344c6.mp4</t>
         </is>
       </c>
     </row>

--- a/youtube_泰国广告.xlsx
+++ b/youtube_泰国广告.xlsx
@@ -4490,7 +4490,12 @@
       </c>
       <c r="D129" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E129" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c6e4dfe62fae54868d57d2b93117eb01.mp4</t>
         </is>
       </c>
     </row>
@@ -5506,7 +5511,12 @@
       </c>
       <c r="D167" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E167" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c67fc9582fa19b9c80e5a8feb37ebb55.mp4</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7747,12 @@
       </c>
       <c r="D250" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E250" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/dde06f7643bd13c056bd308a49758c84.mp4</t>
         </is>
       </c>
     </row>
@@ -7759,7 +7774,12 @@
       </c>
       <c r="D251" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E251" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/12c7985c0bb9a45d60625dabd0b9785e.mp4</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7801,12 @@
       </c>
       <c r="D252" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E252" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/24aacdb5df24aa1e749a4edec0d6d39f.mp4</t>
         </is>
       </c>
     </row>
@@ -7803,7 +7828,12 @@
       </c>
       <c r="D253" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E253" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bf1b8edbbc37db305632d64cbc20ead0.mp4</t>
         </is>
       </c>
     </row>
@@ -7825,7 +7855,12 @@
       </c>
       <c r="D254" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E254" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a24eb3b7ff4ea363c9094baf2e7dcee0.mp4</t>
         </is>
       </c>
     </row>
@@ -7847,7 +7882,12 @@
       </c>
       <c r="D255" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E255" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2e50ad8ba4d64d81505cd3d6c86dd071.mp4</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7909,12 @@
       </c>
       <c r="D256" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E256" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7e6a50ffc7c13c999619455004689558.mp4</t>
         </is>
       </c>
     </row>
@@ -7891,7 +7936,12 @@
       </c>
       <c r="D257" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E257" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/fddfbbda982f49bd375126e743f24c6a.mp4</t>
         </is>
       </c>
     </row>
@@ -7913,7 +7963,12 @@
       </c>
       <c r="D258" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E258" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b1d5b736cdc099cab6a8d83127a06c14.mp4</t>
         </is>
       </c>
     </row>
@@ -7935,7 +7990,12 @@
       </c>
       <c r="D259" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E259" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d436d7aa3817ce074cfd7a08d0c87fa7.mp4</t>
         </is>
       </c>
     </row>
@@ -7957,7 +8017,12 @@
       </c>
       <c r="D260" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E260" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3b125e63e4c0f2ae5119022d093fbc6f.mp4</t>
         </is>
       </c>
     </row>
@@ -7979,7 +8044,12 @@
       </c>
       <c r="D261" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E261" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3f82608f2bf19d80ad300e9c5e70c0ff.mp4</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8071,12 @@
       </c>
       <c r="D262" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E262" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b99be3a59eb72aa79fe2997670fe49df.mp4</t>
         </is>
       </c>
     </row>
@@ -8023,7 +8098,12 @@
       </c>
       <c r="D263" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E263" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d5dce1f8ac78e83016c19cf240ed6f6c.mp4</t>
         </is>
       </c>
     </row>
@@ -8045,7 +8125,12 @@
       </c>
       <c r="D264" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E264" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8fc914af2307f979e6c8412dd8a2020c.mp4</t>
         </is>
       </c>
     </row>
@@ -8067,7 +8152,12 @@
       </c>
       <c r="D265" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E265" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/fa1e7f95b99dfb8df40276586e768961.mp4</t>
         </is>
       </c>
     </row>
@@ -8089,7 +8179,12 @@
       </c>
       <c r="D266" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E266" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/78c3155b9311f90bb165c03f1e2ada7d.mp4</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8206,12 @@
       </c>
       <c r="D267" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E267" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4af952c0b2570d16c82482b23eaf3c42.mp4</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8233,12 @@
       </c>
       <c r="D268" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E268" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c0f5f29edb5514c400765d81fcf32212.mp4</t>
         </is>
       </c>
     </row>
@@ -8155,7 +8260,12 @@
       </c>
       <c r="D269" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E269" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2c80cbe652ce1d0ee7d39f3f4cd1b738.mp4</t>
         </is>
       </c>
     </row>
@@ -8177,7 +8287,12 @@
       </c>
       <c r="D270" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E270" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d5b5698b9943f566181f246c7e566319.mp4</t>
         </is>
       </c>
     </row>
@@ -8199,7 +8314,12 @@
       </c>
       <c r="D271" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E271" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f965f87930bdef0b177108bad86969d8.mp4</t>
         </is>
       </c>
     </row>
@@ -8221,7 +8341,12 @@
       </c>
       <c r="D272" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E272" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2e0b14419f72e51ed7d51698b1278d39.mp4</t>
         </is>
       </c>
     </row>
@@ -8243,7 +8368,12 @@
       </c>
       <c r="D273" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E273" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/997399788ccffac9e96f49321a430b0d.mp4</t>
         </is>
       </c>
     </row>
@@ -8265,7 +8395,12 @@
       </c>
       <c r="D274" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E274" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/10b356eaf491e9056311627e390babf5.mp4</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8422,12 @@
       </c>
       <c r="D275" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E275" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/23f1377be96193cc996a89ebc1974120.mp4</t>
         </is>
       </c>
     </row>
@@ -8309,7 +8449,12 @@
       </c>
       <c r="D276" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E276" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/809c04ce719bcacf5a4b6ee16dd7ca33.mp4</t>
         </is>
       </c>
     </row>
@@ -8331,7 +8476,12 @@
       </c>
       <c r="D277" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E277" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/540e758818eedd04195a61335aebb126.mp4</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8503,12 @@
       </c>
       <c r="D278" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E278" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a8e45d40d41f90f2c7a12b4927696974.mp4</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8530,12 @@
       </c>
       <c r="D279" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E279" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ae03d626fb3e4764db60fa50bd9188ca.mp4</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8557,12 @@
       </c>
       <c r="D280" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E280" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/74a259283fe37f2e1057ec7c1720cd28.mp4</t>
         </is>
       </c>
     </row>
@@ -8419,7 +8584,12 @@
       </c>
       <c r="D281" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E281" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d9603fec72fc66df6d9105719812d28a.mp4</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8611,12 @@
       </c>
       <c r="D282" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E282" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/128cb658f849a5c521cedc45e8b4acd7.mp4</t>
         </is>
       </c>
     </row>
@@ -8463,7 +8638,12 @@
       </c>
       <c r="D283" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E283" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/9cbc2a87800814d3315b64a6b66f7a9d.mp4</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8665,12 @@
       </c>
       <c r="D284" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E284" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d318943a1a31774e7b9450edf63b3117.mp4</t>
         </is>
       </c>
     </row>
@@ -8507,7 +8692,12 @@
       </c>
       <c r="D285" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E285" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/767d9cba5509088aad35955e29030405.mp4</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8719,12 @@
       </c>
       <c r="D286" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E286" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f32f48008d76acd3e5283d2e4a7ea9a7.mp4</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8746,12 @@
       </c>
       <c r="D287" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E287" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/dc0f50bdb9ce3cf173f05bfad906f71b.mp4</t>
         </is>
       </c>
     </row>
@@ -8573,7 +8773,12 @@
       </c>
       <c r="D288" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E288" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/28acc6466b4777f011acfb09ff93d70f.mp4</t>
         </is>
       </c>
     </row>
@@ -8595,7 +8800,12 @@
       </c>
       <c r="D289" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E289" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/13873484be81ce538ea9ba03512b5c89.mp4</t>
         </is>
       </c>
     </row>
@@ -8617,7 +8827,12 @@
       </c>
       <c r="D290" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E290" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ba6aceea860f51075bc5d9f74d59e239.mp4</t>
         </is>
       </c>
     </row>
@@ -8639,7 +8854,12 @@
       </c>
       <c r="D291" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E291" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c40096bf1e81fa018d44dbacf0286db4.mp4</t>
         </is>
       </c>
     </row>
@@ -8661,7 +8881,12 @@
       </c>
       <c r="D292" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E292" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0378f83780972b829fe8c2b69f866f5a.mp4</t>
         </is>
       </c>
     </row>
@@ -8683,7 +8908,12 @@
       </c>
       <c r="D293" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E293" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bad9374a1c5b7d3b78924035826ca2b4.mp4</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8935,12 @@
       </c>
       <c r="D294" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E294" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4b03f7163501e713c7747eea64ec5662.mp4</t>
         </is>
       </c>
     </row>
@@ -8727,7 +8962,12 @@
       </c>
       <c r="D295" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E295" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ba866fa794661078cd9c0ff7c7d6093e.mp4</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8989,12 @@
       </c>
       <c r="D296" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E296" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/96f4344b20f97b223fa00126d983b593.mp4</t>
         </is>
       </c>
     </row>
@@ -8771,7 +9016,12 @@
       </c>
       <c r="D297" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E297" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/9921e3d1d5ede297b6a5c721eb0367b1.mp4</t>
         </is>
       </c>
     </row>
@@ -8793,7 +9043,12 @@
       </c>
       <c r="D298" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E298" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c6fd6401c7ff254d1e4bec842eaeae24.mp4</t>
         </is>
       </c>
     </row>
@@ -8815,7 +9070,12 @@
       </c>
       <c r="D299" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E299" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bc678bc53b6e66d023ea73b590ad4d72.mp4</t>
         </is>
       </c>
     </row>
@@ -8837,7 +9097,12 @@
       </c>
       <c r="D300" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E300" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/93c9d0725adaff69e455038d69dba5a7.mp4</t>
         </is>
       </c>
     </row>
@@ -8859,7 +9124,12 @@
       </c>
       <c r="D301" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E301" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/66952df51d40bf9055eedf227443f30c.mp4</t>
         </is>
       </c>
     </row>
@@ -8881,7 +9151,12 @@
       </c>
       <c r="D302" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E302" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c4bed8d89cb23385856bc28218c28864.mp4</t>
         </is>
       </c>
     </row>
@@ -8903,7 +9178,12 @@
       </c>
       <c r="D303" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E303" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d89f904217d8e5d76814249dab6d2a62.mp4</t>
         </is>
       </c>
     </row>
@@ -8925,7 +9205,12 @@
       </c>
       <c r="D304" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E304" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a60143c078a620f5e2de10083c7c654f.mp4</t>
         </is>
       </c>
     </row>
@@ -8947,7 +9232,12 @@
       </c>
       <c r="D305" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E305" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1b2a17ebeb7ddbeca43787180afc6793.mp4</t>
         </is>
       </c>
     </row>
@@ -8969,7 +9259,12 @@
       </c>
       <c r="D306" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E306" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/5a65a67e1b5163966413d6992f427eed.mp4</t>
         </is>
       </c>
     </row>
@@ -8991,7 +9286,12 @@
       </c>
       <c r="D307" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E307" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4290225e8167e667f42de61401fd164a.mp4</t>
         </is>
       </c>
     </row>
@@ -9013,7 +9313,12 @@
       </c>
       <c r="D308" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E308" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1ccb458c76fb4e91158f3e41f24595f5.mp4</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9340,12 @@
       </c>
       <c r="D309" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E309" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1dece5d7b1a92f479dbbe2df839b7c42.mp4</t>
         </is>
       </c>
     </row>
@@ -9057,7 +9367,12 @@
       </c>
       <c r="D310" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E310" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4149d2118ab0f7cbcc4d42fe83477386.mp4</t>
         </is>
       </c>
     </row>
@@ -9079,7 +9394,12 @@
       </c>
       <c r="D311" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E311" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e48b94e29586bf553706d6b8a4a8b84c.mp4</t>
         </is>
       </c>
     </row>
@@ -9101,7 +9421,12 @@
       </c>
       <c r="D312" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E312" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/159a2d9c69fcf8cda38d31218327220b.mp4</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9448,12 @@
       </c>
       <c r="D313" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E313" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4e9f1182519200ba0c4f37b40b90dae5.mp4</t>
         </is>
       </c>
     </row>
@@ -9145,7 +9475,12 @@
       </c>
       <c r="D314" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E314" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/93133a5bae82b4688aa663713f85a892.mp4</t>
         </is>
       </c>
     </row>
@@ -9167,7 +9502,12 @@
       </c>
       <c r="D315" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E315" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f28e4db252b75e117661f63c9012c78f.mp4</t>
         </is>
       </c>
     </row>
@@ -9189,7 +9529,12 @@
       </c>
       <c r="D316" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E316" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/9d7d53fcbb14577d3e1e3b8f626ddc60.mp4</t>
         </is>
       </c>
     </row>
@@ -9211,7 +9556,12 @@
       </c>
       <c r="D317" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E317" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/6b8c03b29e3f14b61fa299c4ac805c9c.mp4</t>
         </is>
       </c>
     </row>
@@ -9233,7 +9583,12 @@
       </c>
       <c r="D318" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E318" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/dbdfa9b51240c6494f113f3c9c8cc592.mp4</t>
         </is>
       </c>
     </row>
@@ -9255,7 +9610,12 @@
       </c>
       <c r="D319" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E319" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ef3d1d9c48442e25cb19f6446b9a6a7e.mp4</t>
         </is>
       </c>
     </row>
@@ -9277,7 +9637,12 @@
       </c>
       <c r="D320" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E320" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/9983fba0c7838e218829b569af557057.mp4</t>
         </is>
       </c>
     </row>
@@ -9299,7 +9664,12 @@
       </c>
       <c r="D321" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E321" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7f5db16a8e512273f56ad4f51f34a8c9.mp4</t>
         </is>
       </c>
     </row>
@@ -9321,7 +9691,12 @@
       </c>
       <c r="D322" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E322" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/37409b85c9fafc0b62fef9c1ca5ce4fd.mp4</t>
         </is>
       </c>
     </row>
@@ -9343,7 +9718,12 @@
       </c>
       <c r="D323" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E323" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3d95ad766d24e7cd5c26cc9e25a40a1b.mp4</t>
         </is>
       </c>
     </row>
@@ -9365,7 +9745,12 @@
       </c>
       <c r="D324" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E324" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/19f5f7c72f8d050e18d5f7a3fa62ec34.mp4</t>
         </is>
       </c>
     </row>
@@ -9387,7 +9772,12 @@
       </c>
       <c r="D325" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E325" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/639b09ed2d1e52de55ed3237c4038543.mp4</t>
         </is>
       </c>
     </row>
@@ -9409,7 +9799,12 @@
       </c>
       <c r="D326" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E326" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ef00cc1cd2431632914fecc897caada8.mp4</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9826,12 @@
       </c>
       <c r="D327" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E327" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7a7a5906e2b3f64bc2861e969e71be49.mp4</t>
         </is>
       </c>
     </row>
@@ -9453,7 +9853,12 @@
       </c>
       <c r="D328" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E328" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/dd6ceff45347ba49fea2e9b5ab6d8c59.mp4</t>
         </is>
       </c>
     </row>
@@ -9475,7 +9880,12 @@
       </c>
       <c r="D329" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E329" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/320f3bc04926808ab67744348865b82c.mp4</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9907,12 @@
       </c>
       <c r="D330" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E330" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f09b9f59aef3980169b91a6e0dae0acf.mp4</t>
         </is>
       </c>
     </row>
@@ -9519,7 +9934,12 @@
       </c>
       <c r="D331" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E331" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/102a4bb550d46a872b9c4d55bfef0416.mp4</t>
         </is>
       </c>
     </row>
@@ -9563,7 +9983,12 @@
       </c>
       <c r="D333" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E333" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7a539dae63f7fa0817577535b3c7a158.mp4</t>
         </is>
       </c>
     </row>
@@ -9585,7 +10010,12 @@
       </c>
       <c r="D334" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E334" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1194b0c2e6d8a2553fff6ca251a9fc1d.mp4</t>
         </is>
       </c>
     </row>
@@ -9607,7 +10037,12 @@
       </c>
       <c r="D335" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E335" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ee6815e7a6416d2a4db7a2d8485c6d46.mp4</t>
         </is>
       </c>
     </row>
@@ -9629,7 +10064,12 @@
       </c>
       <c r="D336" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E336" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f7144d6e684d42333ef21d75962d8707.mp4</t>
         </is>
       </c>
     </row>
@@ -9651,7 +10091,12 @@
       </c>
       <c r="D337" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E337" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/9f02d70ee6dcb5923bde2032944348a4.mp4</t>
         </is>
       </c>
     </row>
@@ -9673,7 +10118,12 @@
       </c>
       <c r="D338" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E338" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/405b57a4aaedee54aef51099a01550b1.mp4</t>
         </is>
       </c>
     </row>
@@ -9695,7 +10145,12 @@
       </c>
       <c r="D339" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E339" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2e1e7f23267ec41742aa5eacbcbd4492.mp4</t>
         </is>
       </c>
     </row>
@@ -9717,7 +10172,12 @@
       </c>
       <c r="D340" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E340" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a532ee130f8bff3ec3855e4a66f5b90e.mp4</t>
         </is>
       </c>
     </row>
@@ -9739,7 +10199,12 @@
       </c>
       <c r="D341" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E341" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/26295daed45bc6a19f4723bea3a8d551.mp4</t>
         </is>
       </c>
     </row>
@@ -9761,7 +10226,12 @@
       </c>
       <c r="D342" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E342" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/187e9c53bd5ab278078400bba9ab0cfa.mp4</t>
         </is>
       </c>
     </row>
@@ -9783,7 +10253,12 @@
       </c>
       <c r="D343" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E343" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d832856194f759ce74418315f257937f.mp4</t>
         </is>
       </c>
     </row>
@@ -9805,7 +10280,12 @@
       </c>
       <c r="D344" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E344" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/386f13942f30a5116d18a8238fead615.mp4</t>
         </is>
       </c>
     </row>
@@ -9827,7 +10307,12 @@
       </c>
       <c r="D345" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E345" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/645d1140169b534bb67004e26532c91f.mp4</t>
         </is>
       </c>
     </row>
@@ -9849,7 +10334,12 @@
       </c>
       <c r="D346" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E346" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d2f2eda687d95cd6960f8dce0c8c4d31.mp4</t>
         </is>
       </c>
     </row>
@@ -9871,7 +10361,12 @@
       </c>
       <c r="D347" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E347" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ffea3cd2860f07defd1fc1b8a4edb41d.mp4</t>
         </is>
       </c>
     </row>
@@ -9893,7 +10388,12 @@
       </c>
       <c r="D348" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E348" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b7795912fd84f27a65a23f40bddd8bed.mp4</t>
         </is>
       </c>
     </row>
@@ -9915,7 +10415,12 @@
       </c>
       <c r="D349" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E349" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/871c13fca5252ecbad3375be7dbc2a81.mp4</t>
         </is>
       </c>
     </row>
@@ -9937,7 +10442,12 @@
       </c>
       <c r="D350" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E350" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/5e1888c76f372e463e3a005b4c3eb4de.mp4</t>
         </is>
       </c>
     </row>
@@ -9959,7 +10469,12 @@
       </c>
       <c r="D351" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E351" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ecbbf2cf32c43d01e2571471149b12dc.mp4</t>
         </is>
       </c>
     </row>
@@ -9981,7 +10496,12 @@
       </c>
       <c r="D352" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E352" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8efbcab085311e86f772a377fe033742.mp4</t>
         </is>
       </c>
     </row>
@@ -10003,7 +10523,12 @@
       </c>
       <c r="D353" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E353" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/fc0f46ba9386359265d06f9eb5cdb2f7.mp4</t>
         </is>
       </c>
     </row>
@@ -10025,7 +10550,12 @@
       </c>
       <c r="D354" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E354" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7e43f6676d596427ddbca0e411036bda.mp4</t>
         </is>
       </c>
     </row>
@@ -10047,7 +10577,12 @@
       </c>
       <c r="D355" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E355" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/5fb4737fd235454e06f22bfaf8ae970a.mp4</t>
         </is>
       </c>
     </row>
@@ -10069,7 +10604,12 @@
       </c>
       <c r="D356" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E356" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4f22ec6e211f38ebcf8d8963b18f1cc9.mp4</t>
         </is>
       </c>
     </row>
@@ -10091,7 +10631,12 @@
       </c>
       <c r="D357" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E357" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/18c509b3eed8fc6910df3d3e7a891b61.mp4</t>
         </is>
       </c>
     </row>
@@ -10113,7 +10658,12 @@
       </c>
       <c r="D358" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E358" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/51c5e2ce53a74df772dff2a39208d2ad.mp4</t>
         </is>
       </c>
     </row>
@@ -10135,7 +10685,12 @@
       </c>
       <c r="D359" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E359" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/98da8ea29ad4ad7eb3b980d6be3c0e1d.mp4</t>
         </is>
       </c>
     </row>
@@ -10157,7 +10712,12 @@
       </c>
       <c r="D360" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E360" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/806b368fc0b7a17a166ba0e2d57a65e2.mp4</t>
         </is>
       </c>
     </row>
@@ -10179,7 +10739,12 @@
       </c>
       <c r="D361" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E361" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b56faf24f79484bfdea5f740817e2da6.mp4</t>
         </is>
       </c>
     </row>
@@ -10201,7 +10766,12 @@
       </c>
       <c r="D362" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E362" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1de64cb888d98ad777473195e11fed8d.mp4</t>
         </is>
       </c>
     </row>
@@ -10223,7 +10793,12 @@
       </c>
       <c r="D363" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E363" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ee40abeef56dc8a5270271afec38393b.mp4</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10820,12 @@
       </c>
       <c r="D364" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E364" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8fb2d83f7e2c37338ac003b3dc631a64.mp4</t>
         </is>
       </c>
     </row>
@@ -10267,7 +10847,12 @@
       </c>
       <c r="D365" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E365" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/754d509e53552ca3d873d804284cc742.mp4</t>
         </is>
       </c>
     </row>
@@ -10289,7 +10874,12 @@
       </c>
       <c r="D366" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E366" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/31017ac42857905fae9c77f0645f65be.mp4</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10901,12 @@
       </c>
       <c r="D367" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E367" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a69f26357a0490e58841769c80cad017.mp4</t>
         </is>
       </c>
     </row>
@@ -10333,7 +10928,12 @@
       </c>
       <c r="D368" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E368" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/94930a424f455171519401a4c4247edf.mp4</t>
         </is>
       </c>
     </row>
@@ -10355,7 +10955,12 @@
       </c>
       <c r="D369" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E369" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3901bb9b2138b98b12586d56772f3310.mp4</t>
         </is>
       </c>
     </row>
@@ -10377,7 +10982,12 @@
       </c>
       <c r="D370" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E370" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8070193a0fc0c89c44a7c553ab90fa38.mp4</t>
         </is>
       </c>
     </row>
@@ -10399,7 +11009,12 @@
       </c>
       <c r="D371" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E371" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/619266d7d6a9d79e9743f6e0dad78f4c.mp4</t>
         </is>
       </c>
     </row>
@@ -10421,7 +11036,12 @@
       </c>
       <c r="D372" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E372" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/148465b0b75047afaf9a2c3c565c831d.mp4</t>
         </is>
       </c>
     </row>
@@ -10443,7 +11063,12 @@
       </c>
       <c r="D373" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E373" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b906cb5fbc037b09018830c5d1f9f072.mp4</t>
         </is>
       </c>
     </row>
@@ -10465,7 +11090,12 @@
       </c>
       <c r="D374" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E374" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/09554c4036047f034a0ee168ab02ba8b.mp4</t>
         </is>
       </c>
     </row>
@@ -10487,7 +11117,12 @@
       </c>
       <c r="D375" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E375" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0759e4caf4f9c4e462f9e6df101cde86.mp4</t>
         </is>
       </c>
     </row>
@@ -10509,7 +11144,12 @@
       </c>
       <c r="D376" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E376" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4448b9a7deaa00bedd412dfbc335a7aa.mp4</t>
         </is>
       </c>
     </row>
@@ -10531,7 +11171,12 @@
       </c>
       <c r="D377" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E377" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/99abac431e784e83522e835a86a6b4a8.mp4</t>
         </is>
       </c>
     </row>
@@ -10553,7 +11198,12 @@
       </c>
       <c r="D378" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E378" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bb3628429864582b24d43adb207984e8.mp4</t>
         </is>
       </c>
     </row>
@@ -10575,7 +11225,12 @@
       </c>
       <c r="D379" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E379" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ed49236900bececd5588b36024a06142.mp4</t>
         </is>
       </c>
     </row>
@@ -10597,7 +11252,12 @@
       </c>
       <c r="D380" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E380" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bd1ab75046c3015dd1332be548c352d2.mp4</t>
         </is>
       </c>
     </row>
@@ -10619,7 +11279,12 @@
       </c>
       <c r="D381" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E381" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/81f514a7f1d074c0547771e8663967e3.mp4</t>
         </is>
       </c>
     </row>
@@ -10641,7 +11306,12 @@
       </c>
       <c r="D382" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E382" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0bcb6c66d5f5d6e85e88184cd42513a5.mp4</t>
         </is>
       </c>
     </row>
